--- a/RPG/Assets/RPG/Tables/LevelTable.xlsx
+++ b/RPG/Assets/RPG/Tables/LevelTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GGulnimGit\RPG\RPG\Assets\RPG\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C9F65D-FEB3-4F19-AB1B-F3A551E86CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94714C0-5907-4F3E-9169-4BBA2FA62484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="1365" windowWidth="28800" windowHeight="15435" xr2:uid="{4298D520-A9F8-4D5C-988E-5F128A4748B4}"/>
+    <workbookView xWindow="41520" yWindow="1050" windowWidth="28800" windowHeight="15435" xr2:uid="{4298D520-A9F8-4D5C-988E-5F128A4748B4}"/>
   </bookViews>
   <sheets>
     <sheet name="AllLanguage" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
